--- a/Experiments/Measurements/Single Banner Horizontal/V path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/V path/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>207.2157430981984</v>
+        <v>207.2157430981983</v>
       </c>
       <c r="H12" t="n">
-        <v>27.89034348373296</v>
+        <v>27.89034348373289</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>174.3894744973997</v>
+        <v>174.3894744973996</v>
       </c>
       <c r="H13" t="n">
-        <v>33.04593829052843</v>
+        <v>33.04593829052836</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>108.9441760960378</v>
+        <v>108.9441760960373</v>
       </c>
       <c r="H14" t="n">
-        <v>54.11497653879748</v>
+        <v>54.11497653879727</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>126.5424866420293</v>
+        <v>126.5424866420289</v>
       </c>
       <c r="H15" t="n">
-        <v>54.3567734903402</v>
+        <v>54.35677349033995</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>123.7338448047107</v>
+        <v>123.7338448047103</v>
       </c>
       <c r="H16" t="n">
-        <v>45.47640197236053</v>
+        <v>45.47640197236031</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>132.2243752486401</v>
+        <v>132.2243752486397</v>
       </c>
       <c r="H17" t="n">
-        <v>50.04270118826384</v>
+        <v>50.04270118826361</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>206.4684095739354</v>
+        <v>206.4684095739356</v>
       </c>
       <c r="H18" t="n">
-        <v>36.4439067518348</v>
+        <v>36.44390675183494</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>168.9135045244381</v>
+        <v>168.9135045244383</v>
       </c>
       <c r="H19" t="n">
-        <v>38.72991051626716</v>
+        <v>38.72991051626727</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>163.1676018025936</v>
+        <v>163.167601802594</v>
       </c>
       <c r="H24" t="n">
-        <v>39.33179734461999</v>
+        <v>39.33179734462022</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>164.0671327667932</v>
+        <v>164.067132766793</v>
       </c>
       <c r="H29" t="n">
-        <v>44.43440046112678</v>
+        <v>44.43440046112664</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>138.0293048869166</v>
+        <v>138.0293048869164</v>
       </c>
       <c r="H30" t="n">
-        <v>49.78904416052396</v>
+        <v>49.78904416052384</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>109.7398383829424</v>
+        <v>109.7398383829422</v>
       </c>
       <c r="H32" t="n">
-        <v>55.02469790634355</v>
+        <v>55.02469790634336</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>185.3212022268784</v>
+        <v>185.3212022268781</v>
       </c>
       <c r="H34" t="n">
-        <v>32.73811438178399</v>
+        <v>32.73811438178379</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>146.5784935838585</v>
+        <v>146.5784935838583</v>
       </c>
       <c r="H35" t="n">
-        <v>47.21246282839562</v>
+        <v>47.21246282839549</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>156.1014596903487</v>
+        <v>156.1014596903485</v>
       </c>
       <c r="H36" t="n">
-        <v>40.09410627174722</v>
+        <v>40.0941062717471</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>153.1852303586452</v>
+        <v>153.1852303586451</v>
       </c>
       <c r="H37" t="n">
-        <v>51.14187582699319</v>
+        <v>51.14187582699304</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>131.3783132156544</v>
+        <v>131.3783132156548</v>
       </c>
       <c r="H38" t="n">
-        <v>47.89580652224423</v>
+        <v>47.89580652224444</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>149.4642963806966</v>
+        <v>149.4642963806968</v>
       </c>
       <c r="H40" t="n">
-        <v>45.07269997272675</v>
+        <v>45.07269997272686</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>123.9055029656753</v>
+        <v>123.9055029656757</v>
       </c>
       <c r="H45" t="n">
-        <v>55.64280530282517</v>
+        <v>55.64280530282539</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>176.7266288258159</v>
+        <v>176.7266288258161</v>
       </c>
       <c r="H46" t="n">
-        <v>37.62116580855739</v>
+        <v>37.62116580855751</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>135.9043778343267</v>
+        <v>135.9043778343272</v>
       </c>
       <c r="H47" t="n">
-        <v>46.78461005783733</v>
+        <v>46.78461005783755</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>71.53930671013893</v>
+        <v>71.53930671013872</v>
       </c>
       <c r="H48" t="n">
-        <v>47.91365061392913</v>
+        <v>47.91365061392907</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>150.0965712894924</v>
+        <v>150.0965712894922</v>
       </c>
       <c r="H50" t="n">
-        <v>41.60297620954968</v>
+        <v>41.6029762095496</v>
       </c>
     </row>
     <row r="51">
